--- a/500all/speech_level/speeches_CHRG-114hhrg96994.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96994.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400145</t>
   </si>
   <si>
-    <t>Scott Garrett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Garrett. Greetings. Good morning. I apologize for being late.    This hearing of the Subcommittee on Capital Markets and Government Sponsored Enterprises is hereby called to order. Today's hearing is entitled, ``Legislative Proposals to Modernize Business Development Companies--also called BDCs--and Expand Investment Opportunities.''    Without objection, the Chair has the authority to recess the subcommittee at any time.    Before we go to our panel, we will have opening statements. And I yield myself 2\\1/2\\ minutes.    Again, good morning, and I apologize for being a few minutes late. Today's hearing will continue our important work on considering legislative proposals that would modernize our Nation's securities laws in order to do what? To foster greater economic activity.    One of these proposals is a discussion draft that is being circulated right now by the gentleman from South Carolina, Mr. Mulvaney. And what would it do? It would modernize the regulation of BDCs, business development companies.    And what are BDCs? Well, BDCs are closed-end investment funds that have a statutory mandate to invest much of their capital in small and medium-sized businesses. As new regulations cause banks and other lenders to pull back from the small and midsized lending market--and we have heard that in other hearings--BDCs have played an increasingly important role in our economy and in that space.    While it has been 35 years since their creation, the regulatory regime for BDCs has not been meaningfully updated during that time. Mr. Mulvaney's bill, which includes several provisions that this committee has previously considered, would do a couple of things. It would enhance the ability of BDCs to deploy capital, and therefore create jobs and opportunities, as well, for literally thousands of businesses, and therefore also their employees.    Now, aside from that bill, we have a second bill. The second bill we will consider toady is H.R. 2127, the Fair Investment Opportunities for Professional Experts Act. And that was introduced by the gentleman from Arizona, Mr. Schweikert.    What would Mr. Schweikert's bill do? It would amend the definition of who qualifies as an accredited investor under the securities laws, and is therefore eligible to invest in certain private offerings.    And while the Dodd-Frank Act directed the SEC to review the current income and asset-based definition of what an accredited investor is, there is still substantial concern that the SEC could ultimately take action that would limit the number of Americans eligible to invest in private offerings, a market that right now has actually grown to over $1 trillion in recent years.    You see, investing in private companies should not be a privilege reserved only for the super wealthy. And so, Mr. Schweikert's bill would allow more Americans to have the opportunities to secure their financial future.    Taken together, these two commonsense bills would expand upon the previous work of the subcommittee in this very important area. And so again, I thank the two sponsors of the legislation, as well as the witnesses for the hearing today.    And with that, my time has expired. I yield to the ranking member for 5 minutes.</t>
   </si>
   <si>
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you so much, Mr. Chairman. And I thank all our panelists for being here today. We are examining two bills today: one to modernize the regulations for business development companies, or BDCs; and another to revise the definition of an accredited investor.    The BDC bill is very familiar to all of us in this Congress because we considered a similar bill in depth in the last Congress. Since then, I am pleased to say that we have made some very good progress on this bill, and the draft that we are considering today reflects input from the Democratic side of the aisle, the Republican side of the aisle, the SEC, and the BDC community.    I am hopeful that we all can get to a ``yes'' on this bill, which would increase the availability of capital for small businesses. It is an important bill for our economy.    We will also consider a bill by Mr. Schweikert to revise the definition of an accredited investor. How to draw the line between someone who is an accredited investor and someone who is not is one of the most difficult questions in all of securities law.    An accredited investor is someone who, in the words of the Supreme Court, can ``fend for themselves and does not need the protections of the securities law.'' These sophisticated investors are allowed to buy unregistered securities, which are often more complex and riskier than public securities.    Unregistered securities are also less liquid than public securities, which makes these investments in unregistered securities harder to exit or sell. As a result, these investments are supposed to be limited to investors who can legitimately bear the economic risk involved in buying them. These investors are referred to as accredited investors.    Current law defines an accredited investor primarily by reference to a person's income or overall net worth. Someone whose annual income is greater than $200,000 is an accredited investor. Or if someone's net worth, excluding the value of his house, is greater than $1 million.    So the question really is, does this strike the right balance? Is everyone who meets these tests truly able to fend for themselves?    The SEC's Investor Advisory Committee recommended a new definition of an accredited investor last year that seeks to more accurately identify investors with enough financial sophistication to fend for themselves. And I think this proposal is a very good starting point for this discussion.    I look forward to hearing a discussion of the benefits and drawbacks of the Investor Advisory Committee's proposal versus Mr. Schweikert's proposal. This is an important debate to have.    So I thank Mr. Schweikert for putting it forward. And I would also like to thank Chairman Garrett for holding this hearing, and to thank all of our panelists.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Arougheti</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Arougheti. Great. Thank you.    Chairman Garrett, Ranking Member Maloney, thank you for the opportunity to testify today. I am Michael Arougheti, the co-chairman of the board of directors of Ares Capital Corporation, a BDC that has invested more than $20 billion in hundreds of small and medium-sized companies, creating tens of thousands of American jobs.    By way of reminder, Congress created BDCs in 1980 to encourage capital flows to small and medium-sized companies at a time when these businesses had limited options for securing credit. Now uniquely, the BDC model allows ordinary investors the ability to participate in capital formation for small companies, effectively funding Main Street.    Today, similar to 1980, commercial banks continue to exit the middle-market lending space. Perhaps the most striking recent example of this is GE Capital's exit from the lending space. As the seventh largest bank in the United States, this will surely have a further significant adverse impact on the small and medium-sized businesses who have traditionally borrowed from GE Capital, and obviously on the jobs that these businesses have contributed to the economy.    I am here today to express support for the draft of the Small Business Credit Availability Act, H.R. 3868, being offered by Mr. Mulvaney. We believe that the proposed bill will enable BDCs to more easily raise capital and to make loans to middle-market companies, while ensuring that BDCs continue to be appropriately regulated and subject to stringent standards regarding transparency, and obviously shareholder protection.    I think it is important to note that BDCs are not seeking any government or taxpayer subsidy or support.    Many of the challenges that we face as BDCs arise out of our peculiar place in the regulatory framework, regulated as mutual funds yet operating as operating companies. The draft bill builds on H.R. 1800 and other bipartisan efforts in the previous Congress to modernize this regulatory framework, and to ensure that BDCs can continue to fulfill their original congressional mandate.    The proposed bill contains five provisions, each of which we believe will enable BDCs to more effectively fulfill their congressional mandate.    First, the proposed bill contemplates an increase in the BDC asset coverage test from 200 percent to 150 percent, subject to the satisfaction of shareholder-friendly conditions such as extensive public disclosure and transparency, and either a shareholder vote or a ``cooling-off period'' following approval by the independent members of a BDC's board of directors.    We don't believe that this introduces more risk. Rather, it will allow BDCs to invest in lower-yielding, lower-risk assets that don't currently fit their economic model. In fact, the current asset coverage test may ironically force certain BDCs to invest in riskier higher yielding securities in order to meet the dividend requirements of their shareholders.    We also believe that this change will grant borrowers greater financing alternatives at a reduced cost, and will benefit shareholders with more conservative and more diversified portfolios. Further, this change will enable BDCs to lend to a broader portion of the already underserved middle-market.    This proposed change would apply to BDCs the same leverage ratio as small business investment companies, but unlike SBICs, without putting any government capital at risk. Further, given that the House Small Business Committee just last week passed bipartisan legislation increasing the size of the SBIC program, the proposed change certainly seems reasonable.    It is also extremely modest relative to typical bank leverage in our country of 10-to-1 and sometimes greater. Under the current asset coverage test, most BDCs operate at leverage significantly less than allowed. And any prudent manager would likely continue this practice if the asset coverage ratio were to change.    Second, the proposed bill would allow BDCs to issue multiple classes of preferred stock, and solely for qualified institutional buyers, eliminate the requirement that holders of preferred stock have board representation. Had BDCs been able to raise capital during the post-2008 period by issuing preferred stock, many more loans could have been made to cash-starved companies to enable them to retain employees, and in some instances to remain in business.    Third, the proposed bill directs the SEC to make specific technical amendments to certain securities offering rules that make raising capital cumbersome and inefficient. And these rule changes are not controversial and would merely place BDCs on equal footing with non-BDCs.    Fourth, the proposed bill would allow BDCs to own registered investment advisers, which is a technical matter that is currently prohibited under the 1940 Act. Investments in IRAs enable money to be raised from third-party investors, which in turn could be deployed to small and medium-sized companies.    And fifth, the proposed bill would offer increased flexibility for BDCs to invest in a subset of entities currently limited by the 30 percent basket. Importantly, this provision would not allow the amount of the incremental increase in the 30 percent basket to be invested in private equity funds, hedge funds, or CLOs.    So in closing, I am very encouraged by the bipartisan focus on this very important initiative. And I look forward to working with Representative Mulvaney and Representatives Garrett and Maloney and the rest of the committee in moving these bills forward.    I would also like to applaud the committee's efforts to revisit the definition of accredited investor, which, like the BDC regulatory framework that we are discussing today, could indeed benefit from modernization.    And lastly, as a procedural matter, Mr. Chairman, if I could, I would like to introduce a letter into the record from one of our portfolio companies that was referenced in my written testimony.    [The prepared statement of Mr. Arougheti can be found on page 42 of the appendix.]</t>
   </si>
   <si>
@@ -91,36 +82,24 @@
     <t>412257</t>
   </si>
   <si>
-    <t>Bill Foster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Foster. Good afternoon, Chairman Garrett, Ranking Member Maloney, and members of the Subcommittee on Capital Markets and Government Sponsored Enterprises. I appreciate the opportunity to testify today on behalf of the Small Business Investor Alliance or SBIA. SBIA's members provide vital capital to small and medium-sized businesses nationwide, resulting in job creation and economic growth.    My name is Vince Foster, and I am chairman, president, and CEO of Main Street Capital Corporation, an SEC-registered BDC based in Houston, Texas. We are named Main Street for a reason. Main Street is who we are and where we invest.    As our name makes clear, we have invested in over 400 small and midsized companies. That amounts to more than $4 billion invested into growing businesses that were not able to adequately access capital through traditional financing sources. Like many BDCs, we focus on smaller businesses.    We partner with entrepreneurs, business owners, and management teams that generally provide one-stop financing alternatives. Currently, we are backing over 70 lower-middle-market companies headquartered in 24 States. More than half of these businesses have revenues of less than $25 million.    To illustrate this diversity, we have funded two of the fastest growing technology companies in Eugene, Oregon; the largest privately owned jewelry store chain in the Rocky Mountains headquartered in Twin Falls, Idaho; one of the largest Goodyear Tire retailers in the United States headquartered in Austin, Texas; the leading micro-irrigation design and installation company in the San Joaquin Valley headquartered in Delano, California; the leading FBO at the Indianapolis Airport; one of the largest fully-integrated precast concrete companies headquartered in San Antonio, Texas; and one of the only two independent producers of styrene butadiene rubber in the United States headquartered in Baton Rouge, Louisiana, just to name a few.    We have also invested in GRT Rubber Technologies headquartered in Paragould, Arkansas, which was founded in the 1880s and manufactures rubber products including conveyor belts. And Bridge Capital Solutions, headquartered in Hauppauge, New York, which operates Long Island's only licensed commercial check-cashing service, serving small businesses in New York.    Today, Main Street has small business investments in at least 15 of the 24 States represented by this committee. And we are just one of the over 34 BDCs that are a part of SBIA.    Small and medium-sized businesses need growth capital. BDCs are growing to fill that need. BDC loan balances have tripled since 2008, and are not slowing. Growing businesses are going to continue to need more capital. BDCs will benefit from modernization that small businesses will be the ultimate beneficiaries of reform.    BDCs are highly regulated and highly transparent. The public can look up and review every one of our investments.    The BDC industry is not seeking deregulation or any changes to the Dodd-Frank Act. We have earned investor trust and grown stronger in the face of economic calamity. We earned our good name, and we will work to keep it.    What BDCs do need is commonsense modernization. I might need Mike to help me lift this up. Look at this stack of paper. This is our SEC filing to issue stock. Hundreds of pages represent wasted money and manpower.    Here is what CIT, $50 billion versus our $1.5 billion, has to file to get the same result because they can incorporate their other SEC filings by reference, but BDCs cannot. Do 4 more inches of paper protect better than half an inch? No one is protected by the failure to modernize the rules for BDCs.    This discussion draft would fix this absurdity and make a host of other clearly needed reforms. These reforms are overdue and worthy of bipartisan support. We encourage the committee to act promptly.    This committee has clearly worked on a bipartisan basis to make other reforms and improvements. For example, almost every BDC in the industry wants the freedom to access the markets by increasing the regulatory cap on leverage from 1-to-1 to 2-to-1. Not everyone will make the change, but they want the freedom to adjust to changes in the market.    The proposal does this in a very smart fashion that adds meaningful investor protections while adding capacity for investing. The draft bill makes other smart reforms that can add investor protections with transparency.    Currently, BDCs can earn registered investment advisers. But it requires SEC exemptive relief. This means BDCs are playing by different rules, and the investors are in the dark.    Standardizing the relief makes a level playing field, and provides clarity for investors. This, too, is a smart reform that is worthy of bipartisan support.    The bill includes a number of other reforms. Many are technical, but they matter, particularly for smaller and growing BDCs.    Every section of this bill shows thoughtful collaboration and improvements from previous bills. As the committee works through any fine-tuning on the bill, SBIA would encourage the committee to continue to keep the process moving and work to get real reform signed into law this Congress.    I would welcome any questions that you may have for me. Thank you.    [The prepared statement of Mr. Foster can be found on page 62 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Garrett. Thank you.    And later on we will hear from the gentleman from Maine about whether he has any comments about the less use of paper products being produced. But we will wait for his comments later.    Next, from Franklin Square Capital Partners, Mr. Gerber is recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Gerber</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gerber. Thank you, Chairman Garrett, Ranking Member Maloney, and members of the subcommittee. Thank you for the opportunity to testify today. My name is Mike Gerber and I am an executive vice president with Franklin Square Capital Partners.    Franklin Square was founded in Philadelphia in 2007 with the mission of offering institutional quality alternative investments to mainstream American investors, while leading the industry in best practices, transparency, investor protection, and education. To that end, we launched the industry's first-ever non-traded BDC in 2009. We successfully listed that fund on the New York Stock Exchange in April of last year to create liquidity for our investors.    Today, we manage four BDCs and have more BDC assets under management than any other manager in the industry. Franklin Square has investors in all 50 States, and we have portfolio companies in 39 States. Importantly, we have delivered strong risk-adjusted returns for our investors.    As you all know, the 1980 law that created BDCs was passed with strong bipartisan support, and was designed to stimulate investment in U.S. companies by matching mainstream investors' capital with mainstream businesses. Because BDCs are designed for retail investors, they are appropriately heavily regulated.    In fact, whether traded or non-traded, BDCs are among the most highly regulated investment vehicles in the marketplace. And because of the extensive public filings, some of which you have seen right here, BDCs are fully transparent to regulators and investors alike.    Our culture at Franklin Square is to embrace this regulation. In fact, it is part of how we market ourselves to financial advisers and investors. Specifically, BDCs register shares under the 1933 Act, and elect treatment as a BDC under the 1940 Act. In addition, a BDC is subject to the 1934 Act as a public company, meaning it must file 10-Qs, 10-Ks, 8-Ks and proxy statements.    Contained in every Form Q and Form K is a schedule of all of our investments, along with details such as the name of the portfolio company, the size of the loan, the rate of the loan, and the current mark of the investment.    Other key protections include mandatory third-party custody of all BDC assets; a board of directors, the majority of whom must be independent; and board approval of key matters such as management fees and quarterly valuations. In addition, our non-traded BDCs are also regulated by FINRA and by the blue sky securities regulators in all 50 States.    Taken together, these laws and regulations ensure that BDCs are extremely transparent, minimize conflicts of interest, and provide investors with a high level of protection.    One of the key mandates under the law requires BDCs to invest at least 70 percent of their assets in U.S. private and small cap companies. As a result, our BDCs at Franklin Square provided a significant amount of capital to middle-market job-creating companies.    Middle-market businesses employ more than 47 million people, or one out of every three workers in the private sector. In fact, between 2008 and 2014, middle-market firms grew jobs by 4.4 percent versus 1.6 percent for big businesses, and unfortunately a 0.9 percent decline with small businesses.    And now 39 percent of middle-market companies say they expect to grow and add more jobs in 2015. Middle market lenders like BDCs, therefore, must be poised to provide the capital necessary to help fuel this anticipated growth.    Currently, there are 84 BDCs representing approximately $70 billion in investments. At Franklin Square we have deployed $27 billion since inception, including $10 billion in directly originated loans.    The primary tool offered by Mr. Mulvaney's legislation that would help BDCs support more job-creating middle-market companies is the increase in the debt-to-equity ratio from 1-to-1 to 2-to-1. We believe this increase in leverage is modest and makes sense for three reasons.    First, BDCs would have more capital available to meet the demand of middle-market firms, while keeping all of our investor protections in place. Second, this would permit BDCs, as Mr. Arougheti explained, to build safer portfolios, delivering the same or higher returns, while taking on less risk. And third, even with the proposed increase, 2-to-1 leverage would still be quite low when compared to other lenders in the capital markets.    For example, banks today are levered anywhere from 8-to-1 to 15-to-1, and hedge funds are levered in the mid-teens to low 20s. We believe it would be good public policy to increase the lending capacity of BDCs, and promote the more heavily regulated, more transparent BDC model.    The discussion draft contains several additional provisions which I address in my written testimony, and I would be happy to cover in Q&amp;A. I would like to close by thanking Representative Mulvaney for his work on this legislation. And I look forward to answering questions from the committee.    [The prepared statement of Mr. Gerber can be found on page 73 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Garrett. Thank you.    Now from the Center for Capital Markets Competitiveness, Mr. Quaadman, welcome back to the panel. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Quaadman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Quaadman. Thank you, Chairman Garrett, Ranking Member Maloney, and members of the subcommittee.    Markets provide investors with the opportunity for return, and businesses with the potential to grow. Markets must have an even playing field and certainty in order to achieve these purposes. But we also live in a global economy.    So this past February, the Chamber released a report entitled, ``International Markets: A Diverse System is the Key to Commerce,'' which was written by Professor Anjan Thakor of Washington University.    And what the report found was two things: first, for businesses to operate in this global economy, they need to have diverse forms of financing; and second, capital will go to those markets that are most efficient, and businesses will go to where the capital is.    Therefore, in this global competitive environment, we have to keep in mind that the United States is not the only destination for capital. Indeed others, including the European Union today, are currently considering proposals to make their market-based financing more efficient in order to spur their capital formation. So these bills and the hearings that the subcommittee has been holding this year are very timely.    The business development corporations are filling a void for the midsized businesses and provide an alternative means to raise capital as other options have dried up over the years. We want to thank Mr. Mulvaney for introducing the Small Business Credit Availability Act, and we support it.    While BDCs have only been in operation since 1980, it is only in the last few years that they have become an attractive means of capital formation for businesses. Indeed, the Chamber has supported past bipartisan efforts to increase BDC activity. And we believe that this bill addresses the concerns that were raised in prior legislative debates, as well as by the SEC.    This bill will provide greater capital and flexibility investments while still having BDCs as a regulated entity. BDCs will increase, but still on a limited basis.    The Chamber also supports robust disclosures and investor protections of BDCs so that retail investors have both the opportunity to understand the upside, as well as the risk of investing in BDCs. We believe that the Mulvaney draft bill achieves that purpose.    I would also like to address the H.R. 2187, the Fair Investment Opportunities for Professional Experts Act. We need to have limits to allow sophisticated investors to invest in private companies and to access complex investment vehicles. We need to do this to ensure that unsophisticated investors are not harmed.    The Chamber supports objective tests such as asset and income thresholds to determine accredited investors. Mr. Schweikert has thoughtfully pointed out that there may be some on the periphery who should be allowed in. And we have some suggestions on how to improve the bill.    First, those who are licensed and certified to sell securities should be considered to be a sophisticated investor, but with caps to ensure that their investments match their financial wherewithal. Secondly, we understand the intent behind the FINRA test and think it is an innovative way to get at the solution. However, the test is also subjective.    We would prefer that the SEC be authorized to study the issue. What are the characteristics of a sophisticated investor? What are some of the innovative ways to bring those in, in a safe manner? And then to have the SEC report back to this committee as to what those innovations should be. And that those should be brought in under limited circumstances.    Additionally, we have concerns on the language regarding the use of financial intermediaries conveying an accredited investor status to retail investors. While we understand the intent behind that provision, we are concerned that the exception will subsume the rule, that it will also place some unsophisticated investors at harm, as well as increase liability for financial intermediaries. But we think this is a good step forward, and we are happy to work with Mr. Schweikert to make the bill a reality.    The Chamber feels that these bills will enhance the competitiveness and increase opportunities for return, growth, and job creation. We look forward to working with the sponsors of this legislation, both bills, with the subcommittee, and to improve them as well as to include these vehicles into a JOBS Act 2.0 that we hope can become law in this Congress. Thank you.    [The prepared statement of Mr. Quaadman can be found on page 81 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Garrett. Thank you.    Finally, last but not least, Professor Brown. You are recognized for--</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brown. ``Jay'' is fine.</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman. Thanks for holding this hearing.    Mr. Arougheti, Mr. Brown had said that increasing the leverage ratio would be harmful to--has the potential to be harmful to the investors. But what I heard you saying is that you would use that leverage in a way that enhances shareholder value, wouldn't you?</t>
   </si>
   <si>
@@ -253,9 +229,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you.    Mr. Brown, one definition that would be added is for accredited investors or those who have retained or used the services of various advisers. As you understand the legislation, would that mean that an investor could just retain the advice of an adviser who is affiliated with, selected by, or compensated by the issuer?</t>
   </si>
   <si>
@@ -295,9 +268,6 @@
     <t>412437</t>
   </si>
   <si>
-    <t>Bill Huizenga</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huizenga. Thank you, Mr. Chairman.    And actually I will kind of continue on the line of questioning that my friend from California had. And I might add, while I might question your judgment on things on occasion, politically I would view you as a qualified investor. I would hope that reasonably educated people who can go do this would be able to go in and make these types of decisions.    So I am kind of curious about this--sort of this fiduciary issue that seemed to be the pursuit, and about compensation. And Mr. Gerber, when the little exchange was happening you had a very contemplative look on your face. I am curious if you were looking to try to respond to that or any of the others.    And then Mr. Quaadman, you had mentioned that from your perspective, quickly, at the end of I think it was Mr. Neugebauer's questioning about you believe that this could help operational companies. And I wanted to expand on that a little bit.    And then Mr. Arougheti, you had talked a little bit about adequate protection. So that is kind of that direction I would like to go.    And Mr. Gerber, I don't know if you care to lead off, if you had something to say about that fiduciary element?</t>
   </si>
   <si>
@@ -334,9 +304,6 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Garrett. And thank you, Ranking Member Maloney, for holding this hearing.    It seems to me that when it comes to innovation the United States is the envy of the world. And we are the envy not only because our economy values and rewards entrepreneurship and hard work, but because our markets are transparent, safe, and liquid.    My first question goes to Professor Brown. The discussion draft of the Small Business Credit Availability Act creates multiple classes of preferred stock, each with different shareholder rights. With different characteristics and rights, do the new classes of preferred stock pose risk to retail investors?</t>
   </si>
   <si>
@@ -376,9 +343,6 @@
     <t>412461</t>
   </si>
   <si>
-    <t>Steve Stivers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stivers. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -424,9 +388,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. And I want to thank the members of the panel. You have been helpful.    Let's drill down on that a little bit, though. Under the terms of the bill right now, H.R. 2187, a personal injury attorney with no other requirements would be able to self-certify as an accredited investor. Isn't that right, Mr. Quaadman?</t>
   </si>
   <si>
@@ -463,9 +424,6 @@
     <t>412399</t>
   </si>
   <si>
-    <t>David Schweikert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman. And we will walk through a couple of the things, and maybe if one or two of the misunderstandings and then work through--work a little backwards from there.    First of all, I think for all of us here there is an understanding that we have both the societal problem and some other mechanical problems. My understanding is that of our 318 million population right now we have only about 600,000 Americans who have gone through the process who are qualified investors.    We know that half of our Baby Boom population is moving into retirement with very, very little savings. So part of our goal here is how do we move more of our population into the investment class, and do it in a safe and rational fashion? And so I actually have been working on this bill for a while, but quite open to any brilliant suggestion.    I do want to go over a couple of things, just because one I think was sort of a misunderstanding, a misstatement. Under current legislation right now, under a current law 506, if you are the lawyer, if you are the CPA, if you are the registered broker-dealer, you get to certify someone as being a qualified investor. It doesn't make you a qualified investor.    The second part of that is the way the bill is drafted right now, if you were to hire one of those people for guidance, it would allow you to invest in some of these products. Maybe that is where it needs to be tightened up.    And my first question, Mr. Chairman, and it was actually to Mr. Brown, just one quick one. You are actually on the SEC's committee that has been somewhat looking at the definitions of qualified investor?</t>
   </si>
   <si>
@@ -499,9 +457,6 @@
     <t>412282</t>
   </si>
   <si>
-    <t>James A. Himes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Himes. Thank you, Mr. Chairman.    And I thank you all for being here for the duration. I am encouraged by what is a robust and substantive bipartisan conversation.    I do have, though, a couple of--and by the way I appreciate Mr. Mulvaney's offer. I have a couple of concerns that I would like to have addressed here. The first and most important pertains to the levels of leverage that would be permitted under the Mulvaney proposal.    Specifically if you start to do the math on the 30 percent bucket where, as you know, there are plenty of firms out there that are holding equity tranches in CLOs which themselves are seven, eight, nine, 10 times levered.    When you start to do the math on going to 2-to-1 leverage in these instruments, on investments in financial companies which may themselves have 3 or 4 times leverage, investing in instruments which themselves may have 7, 8, 9 times leverage, you pretty quickly get to some pretty stratospheric leverage numbers. It is not hard to get up into the sort of 70x leverage numbers if you just work through that math.    And of course if you then expand the 30 percent bucket into 50 percent, you have conceivably, and I understand that there will be some prudence exercised by some players in the industry, but you potentially have a very highly leveraged vehicle here.    So I wonder--and let me just start with Mr. Gerber since he is in the business. And then I would welcome comments. But am I right to be concerned that if we permit this degree of leverage, you have essentially a very, very volatile instrument?    I don't need to tell you that at 50x leverage, a tiny fluctuation in the value of underlying asset puts this instrument completely underwater and eliminates the investment of a lot of retail investors for whom this product is created. So, Mr. Gerber, make me feel more comfortable on that issue.</t>
   </si>
   <si>
@@ -541,9 +496,6 @@
     <t>412633</t>
   </si>
   <si>
-    <t>Bruce Poliquin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you, Mr. Chairman, very much. I appreciate it.    And thank you gentlemen for all coming today. If we all as a country look at the state of our economy, where it has gone and where it is going, in the last 5 or 10 years, my understanding is that about 80 percent of the new job hires in this country were in the small-to medium-sized business space. So we want to make sure that we do everything humanly possible to help our small businesses grow.    I just looked at a survey a short time ago saying something like 42 percent of business executives believe that the lack of financing is one of the key reasons that they just don't have the confidence to hire more workers and grow their business.    So I know that Dodd-Frank is a smothering regulation that is reducing the available credit among lots of players in your space. And so I salute you folks for trying to fill that void.    I just heard something, Mr. Gerber, a short time ago that I want to drill down with you a little bit if I may, something that for a non-traded BDC like you folks that the information that is provided tends to be opaque. Now, we want to make sure that investors who are investing in these sort of financial products, that they have all the information they need to go forward. Could you address that, sir?</t>
   </si>
   <si>
@@ -595,9 +547,6 @@
     <t>412407</t>
   </si>
   <si>
-    <t>John C. Carney Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carney. Thank you, Mr. Chairman, and Ranking Member Maloney for holding this hearing today. And thank you to Mr. Mulvaney and Mr. Schweikert for these proposals.    I would like to--I have to admit I don't know a lot about BDCs. And so I found your testimony very interesting. And I just have really two questions.    One is to you, Mr. Foster. On page five, I would like to understand a little bit about how these BDCs are operating in my area. I am the Representative from the State of Delaware, the whole State, which is a very small place.    But I notice on here that it has a pretty big number under it on your map on page five, particularly relative to States that are much, much larger. Can you explain that? Is that a function of our fact that we are the State to incorporate your business? Does that have anything to do with that? Or is that a function of greater BDC activity in my State?</t>
   </si>
   <si>
@@ -679,9 +628,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Will the gentleman yield for a second?</t>
   </si>
   <si>
@@ -704,9 +650,6 @@
   </si>
   <si>
     <t>412422</t>
-  </si>
-  <si>
-    <t>Randy Hultgren</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Mr. Chairman.    Thank you all for being here.</t>
@@ -1189,11 +1132,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1213,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1241,11 +1180,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1265,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1293,11 +1228,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1317,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1345,11 +1276,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1369,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1397,11 +1324,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1421,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1449,11 +1372,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1473,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1501,11 +1420,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1525,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1553,11 +1468,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1577,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1605,11 +1516,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1629,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1657,11 +1564,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1681,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1709,11 +1612,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1733,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1761,11 +1660,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1785,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1813,11 +1708,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1837,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1865,11 +1756,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1889,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1917,11 +1804,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1941,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1969,11 +1852,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1993,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2019,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2045,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2071,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2097,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2123,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2149,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2175,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2201,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2227,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2255,11 +2116,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2279,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2305,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2331,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2357,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2383,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2409,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2435,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2461,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2487,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2513,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2539,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2567,11 +2404,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2591,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s">
-        <v>79</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2617,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2643,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2669,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2695,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2721,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2747,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2773,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2799,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>79</v>
-      </c>
-      <c r="H64" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2827,11 +2644,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2851,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s">
-        <v>79</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2879,11 +2692,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2903,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2929,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2955,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2981,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3007,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3033,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3059,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3085,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3111,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3137,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>93</v>
-      </c>
-      <c r="H77" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3165,11 +2956,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3189,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3215,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3241,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3267,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3293,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3319,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3345,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3371,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3399,11 +3172,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3423,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3449,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>106</v>
-      </c>
-      <c r="H89" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3477,11 +3244,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3501,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>119</v>
-      </c>
-      <c r="G91" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3529,11 +3292,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3553,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
-      </c>
-      <c r="G93" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3579,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3605,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
-      </c>
-      <c r="G95" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3631,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3657,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3683,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3709,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3735,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3761,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>119</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
-      <c r="H101" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3787,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3813,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3841,11 +3580,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3865,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>135</v>
-      </c>
-      <c r="G105" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3891,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3917,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>135</v>
-      </c>
-      <c r="G107" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3943,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3969,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>135</v>
-      </c>
-      <c r="G109" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3995,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4021,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>135</v>
-      </c>
-      <c r="G111" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4047,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4073,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4099,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4125,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
-      </c>
-      <c r="G115" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4153,11 +3868,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4177,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>148</v>
-      </c>
-      <c r="G117" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4203,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4229,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
-      </c>
-      <c r="G119" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4255,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4281,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>148</v>
-      </c>
-      <c r="G121" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4307,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4333,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>148</v>
-      </c>
-      <c r="G123" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4359,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4385,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4413,11 +4108,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4437,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>160</v>
-      </c>
-      <c r="G127" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4463,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4489,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>160</v>
-      </c>
-      <c r="G129" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4515,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4541,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>160</v>
-      </c>
-      <c r="G131" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4567,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4593,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>160</v>
-      </c>
-      <c r="G133" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4619,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4645,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>160</v>
-      </c>
-      <c r="G135" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4671,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4699,11 +4372,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4723,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
-      </c>
-      <c r="G138" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4751,11 +4420,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4775,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>174</v>
-      </c>
-      <c r="G140" t="s">
-        <v>175</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4801,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4827,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>174</v>
-      </c>
-      <c r="G142" t="s">
-        <v>175</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4853,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4879,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>174</v>
-      </c>
-      <c r="G144" t="s">
-        <v>175</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4905,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4931,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>174</v>
-      </c>
-      <c r="G146" t="s">
-        <v>175</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4957,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4983,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G148" t="s">
-        <v>175</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5009,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5035,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>174</v>
-      </c>
-      <c r="G150" t="s">
-        <v>175</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5061,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5087,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>174</v>
-      </c>
-      <c r="G152" t="s">
-        <v>175</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5113,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5139,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
+        <v>159</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
         <v>174</v>
-      </c>
-      <c r="G154" t="s">
-        <v>175</v>
-      </c>
-      <c r="H154" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5167,11 +4804,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5191,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>192</v>
-      </c>
-      <c r="G156" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5217,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5243,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>192</v>
-      </c>
-      <c r="G158" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5269,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5295,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>192</v>
-      </c>
-      <c r="G160" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5321,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5347,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>192</v>
-      </c>
-      <c r="G162" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5373,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5399,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>192</v>
-      </c>
-      <c r="G164" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5425,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5451,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>192</v>
-      </c>
-      <c r="G166" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5477,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5503,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>192</v>
-      </c>
-      <c r="G168" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5529,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5555,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>192</v>
-      </c>
-      <c r="G170" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5581,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5607,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>192</v>
-      </c>
-      <c r="G172" t="s">
+        <v>176</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
         <v>193</v>
-      </c>
-      <c r="H172" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5633,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5659,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>192</v>
-      </c>
-      <c r="G174" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5685,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5711,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>192</v>
-      </c>
-      <c r="G176" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5737,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5763,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>192</v>
-      </c>
-      <c r="G178" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5789,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5815,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>192</v>
-      </c>
-      <c r="G180" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5841,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5867,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>220</v>
-      </c>
-      <c r="G182" t="s">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5893,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>192</v>
-      </c>
-      <c r="G183" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5919,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>220</v>
-      </c>
-      <c r="G184" t="s">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5945,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>192</v>
-      </c>
-      <c r="G185" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5971,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>24</v>
-      </c>
-      <c r="G186" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5997,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>192</v>
-      </c>
-      <c r="G187" t="s">
-        <v>193</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6025,11 +5596,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6049,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>229</v>
-      </c>
-      <c r="G189" t="s">
-        <v>230</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6077,11 +5644,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6101,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>220</v>
-      </c>
-      <c r="G191" t="s">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6129,11 +5692,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6153,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>229</v>
-      </c>
-      <c r="G193" t="s">
-        <v>230</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6179,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6205,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>229</v>
-      </c>
-      <c r="G195" t="s">
-        <v>230</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6231,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6257,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>229</v>
-      </c>
-      <c r="G197" t="s">
-        <v>230</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6283,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6309,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>229</v>
-      </c>
-      <c r="G199" t="s">
-        <v>230</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6335,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>24</v>
-      </c>
-      <c r="G200" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6361,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>229</v>
-      </c>
-      <c r="G201" t="s">
-        <v>230</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6389,11 +5932,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6413,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>220</v>
-      </c>
-      <c r="G203" t="s">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6441,11 +5980,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6465,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>220</v>
-      </c>
-      <c r="G205" t="s">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6491,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6517,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>220</v>
-      </c>
-      <c r="G207" t="s">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6543,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6569,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>220</v>
-      </c>
-      <c r="G209" t="s">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6595,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6621,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>220</v>
-      </c>
-      <c r="G211" t="s">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6647,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6673,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>220</v>
-      </c>
-      <c r="G213" t="s">
-        <v>221</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6701,11 +6220,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6725,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>14</v>
-      </c>
-      <c r="G215" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6753,11 +6268,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96994.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96994.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400145</t>
   </si>
   <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Garrett. Greetings. Good morning. I apologize for being late.    This hearing of the Subcommittee on Capital Markets and Government Sponsored Enterprises is hereby called to order. Today's hearing is entitled, ``Legislative Proposals to Modernize Business Development Companies--also called BDCs--and Expand Investment Opportunities.''    Without objection, the Chair has the authority to recess the subcommittee at any time.    Before we go to our panel, we will have opening statements. And I yield myself 2\\1/2\\ minutes.    Again, good morning, and I apologize for being a few minutes late. Today's hearing will continue our important work on considering legislative proposals that would modernize our Nation's securities laws in order to do what? To foster greater economic activity.    One of these proposals is a discussion draft that is being circulated right now by the gentleman from South Carolina, Mr. Mulvaney. And what would it do? It would modernize the regulation of BDCs, business development companies.    And what are BDCs? Well, BDCs are closed-end investment funds that have a statutory mandate to invest much of their capital in small and medium-sized businesses. As new regulations cause banks and other lenders to pull back from the small and midsized lending market--and we have heard that in other hearings--BDCs have played an increasingly important role in our economy and in that space.    While it has been 35 years since their creation, the regulatory regime for BDCs has not been meaningfully updated during that time. Mr. Mulvaney's bill, which includes several provisions that this committee has previously considered, would do a couple of things. It would enhance the ability of BDCs to deploy capital, and therefore create jobs and opportunities, as well, for literally thousands of businesses, and therefore also their employees.    Now, aside from that bill, we have a second bill. The second bill we will consider toady is H.R. 2127, the Fair Investment Opportunities for Professional Experts Act. And that was introduced by the gentleman from Arizona, Mr. Schweikert.    What would Mr. Schweikert's bill do? It would amend the definition of who qualifies as an accredited investor under the securities laws, and is therefore eligible to invest in certain private offerings.    And while the Dodd-Frank Act directed the SEC to review the current income and asset-based definition of what an accredited investor is, there is still substantial concern that the SEC could ultimately take action that would limit the number of Americans eligible to invest in private offerings, a market that right now has actually grown to over $1 trillion in recent years.    You see, investing in private companies should not be a privilege reserved only for the super wealthy. And so, Mr. Schweikert's bill would allow more Americans to have the opportunities to secure their financial future.    Taken together, these two commonsense bills would expand upon the previous work of the subcommittee in this very important area. And so again, I thank the two sponsors of the legislation, as well as the witnesses for the hearing today.    And with that, my time has expired. I yield to the ranking member for 5 minutes.</t>
   </si>
   <si>
     <t>400251</t>
   </si>
   <si>
+    <t>Maloney</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you so much, Mr. Chairman. And I thank all our panelists for being here today. We are examining two bills today: one to modernize the regulations for business development companies, or BDCs; and another to revise the definition of an accredited investor.    The BDC bill is very familiar to all of us in this Congress because we considered a similar bill in depth in the last Congress. Since then, I am pleased to say that we have made some very good progress on this bill, and the draft that we are considering today reflects input from the Democratic side of the aisle, the Republican side of the aisle, the SEC, and the BDC community.    I am hopeful that we all can get to a ``yes'' on this bill, which would increase the availability of capital for small businesses. It is an important bill for our economy.    We will also consider a bill by Mr. Schweikert to revise the definition of an accredited investor. How to draw the line between someone who is an accredited investor and someone who is not is one of the most difficult questions in all of securities law.    An accredited investor is someone who, in the words of the Supreme Court, can ``fend for themselves and does not need the protections of the securities law.'' These sophisticated investors are allowed to buy unregistered securities, which are often more complex and riskier than public securities.    Unregistered securities are also less liquid than public securities, which makes these investments in unregistered securities harder to exit or sell. As a result, these investments are supposed to be limited to investors who can legitimately bear the economic risk involved in buying them. These investors are referred to as accredited investors.    Current law defines an accredited investor primarily by reference to a person's income or overall net worth. Someone whose annual income is greater than $200,000 is an accredited investor. Or if someone's net worth, excluding the value of his house, is greater than $1 million.    So the question really is, does this strike the right balance? Is everyone who meets these tests truly able to fend for themselves?    The SEC's Investor Advisory Committee recommended a new definition of an accredited investor last year that seeks to more accurately identify investors with enough financial sophistication to fend for themselves. And I think this proposal is a very good starting point for this discussion.    I look forward to hearing a discussion of the benefits and drawbacks of the Investor Advisory Committee's proposal versus Mr. Schweikert's proposal. This is an important debate to have.    So I thank Mr. Schweikert for putting it forward. And I would also like to thank Chairman Garrett for holding this hearing, and to thank all of our panelists.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Arougheti</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Arougheti. Great. Thank you.    Chairman Garrett, Ranking Member Maloney, thank you for the opportunity to testify today. I am Michael Arougheti, the co-chairman of the board of directors of Ares Capital Corporation, a BDC that has invested more than $20 billion in hundreds of small and medium-sized companies, creating tens of thousands of American jobs.    By way of reminder, Congress created BDCs in 1980 to encourage capital flows to small and medium-sized companies at a time when these businesses had limited options for securing credit. Now uniquely, the BDC model allows ordinary investors the ability to participate in capital formation for small companies, effectively funding Main Street.    Today, similar to 1980, commercial banks continue to exit the middle-market lending space. Perhaps the most striking recent example of this is GE Capital's exit from the lending space. As the seventh largest bank in the United States, this will surely have a further significant adverse impact on the small and medium-sized businesses who have traditionally borrowed from GE Capital, and obviously on the jobs that these businesses have contributed to the economy.    I am here today to express support for the draft of the Small Business Credit Availability Act, H.R. 3868, being offered by Mr. Mulvaney. We believe that the proposed bill will enable BDCs to more easily raise capital and to make loans to middle-market companies, while ensuring that BDCs continue to be appropriately regulated and subject to stringent standards regarding transparency, and obviously shareholder protection.    I think it is important to note that BDCs are not seeking any government or taxpayer subsidy or support.    Many of the challenges that we face as BDCs arise out of our peculiar place in the regulatory framework, regulated as mutual funds yet operating as operating companies. The draft bill builds on H.R. 1800 and other bipartisan efforts in the previous Congress to modernize this regulatory framework, and to ensure that BDCs can continue to fulfill their original congressional mandate.    The proposed bill contains five provisions, each of which we believe will enable BDCs to more effectively fulfill their congressional mandate.    First, the proposed bill contemplates an increase in the BDC asset coverage test from 200 percent to 150 percent, subject to the satisfaction of shareholder-friendly conditions such as extensive public disclosure and transparency, and either a shareholder vote or a ``cooling-off period'' following approval by the independent members of a BDC's board of directors.    We don't believe that this introduces more risk. Rather, it will allow BDCs to invest in lower-yielding, lower-risk assets that don't currently fit their economic model. In fact, the current asset coverage test may ironically force certain BDCs to invest in riskier higher yielding securities in order to meet the dividend requirements of their shareholders.    We also believe that this change will grant borrowers greater financing alternatives at a reduced cost, and will benefit shareholders with more conservative and more diversified portfolios. Further, this change will enable BDCs to lend to a broader portion of the already underserved middle-market.    This proposed change would apply to BDCs the same leverage ratio as small business investment companies, but unlike SBICs, without putting any government capital at risk. Further, given that the House Small Business Committee just last week passed bipartisan legislation increasing the size of the SBIC program, the proposed change certainly seems reasonable.    It is also extremely modest relative to typical bank leverage in our country of 10-to-1 and sometimes greater. Under the current asset coverage test, most BDCs operate at leverage significantly less than allowed. And any prudent manager would likely continue this practice if the asset coverage ratio were to change.    Second, the proposed bill would allow BDCs to issue multiple classes of preferred stock, and solely for qualified institutional buyers, eliminate the requirement that holders of preferred stock have board representation. Had BDCs been able to raise capital during the post-2008 period by issuing preferred stock, many more loans could have been made to cash-starved companies to enable them to retain employees, and in some instances to remain in business.    Third, the proposed bill directs the SEC to make specific technical amendments to certain securities offering rules that make raising capital cumbersome and inefficient. And these rule changes are not controversial and would merely place BDCs on equal footing with non-BDCs.    Fourth, the proposed bill would allow BDCs to own registered investment advisers, which is a technical matter that is currently prohibited under the 1940 Act. Investments in IRAs enable money to be raised from third-party investors, which in turn could be deployed to small and medium-sized companies.    And fifth, the proposed bill would offer increased flexibility for BDCs to invest in a subset of entities currently limited by the 30 percent basket. Importantly, this provision would not allow the amount of the incremental increase in the 30 percent basket to be invested in private equity funds, hedge funds, or CLOs.    So in closing, I am very encouraged by the bipartisan focus on this very important initiative. And I look forward to working with Representative Mulvaney and Representatives Garrett and Maloney and the rest of the committee in moving these bills forward.    I would also like to applaud the committee's efforts to revisit the definition of accredited investor, which, like the BDC regulatory framework that we are discussing today, could indeed benefit from modernization.    And lastly, as a procedural matter, Mr. Chairman, if I could, I would like to introduce a letter into the record from one of our portfolio companies that was referenced in my written testimony.    [The prepared statement of Mr. Arougheti can be found on page 42 of the appendix.]</t>
   </si>
   <si>
@@ -82,24 +100,39 @@
     <t>412257</t>
   </si>
   <si>
+    <t>Foster</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Foster. Good afternoon, Chairman Garrett, Ranking Member Maloney, and members of the Subcommittee on Capital Markets and Government Sponsored Enterprises. I appreciate the opportunity to testify today on behalf of the Small Business Investor Alliance or SBIA. SBIA's members provide vital capital to small and medium-sized businesses nationwide, resulting in job creation and economic growth.    My name is Vince Foster, and I am chairman, president, and CEO of Main Street Capital Corporation, an SEC-registered BDC based in Houston, Texas. We are named Main Street for a reason. Main Street is who we are and where we invest.    As our name makes clear, we have invested in over 400 small and midsized companies. That amounts to more than $4 billion invested into growing businesses that were not able to adequately access capital through traditional financing sources. Like many BDCs, we focus on smaller businesses.    We partner with entrepreneurs, business owners, and management teams that generally provide one-stop financing alternatives. Currently, we are backing over 70 lower-middle-market companies headquartered in 24 States. More than half of these businesses have revenues of less than $25 million.    To illustrate this diversity, we have funded two of the fastest growing technology companies in Eugene, Oregon; the largest privately owned jewelry store chain in the Rocky Mountains headquartered in Twin Falls, Idaho; one of the largest Goodyear Tire retailers in the United States headquartered in Austin, Texas; the leading micro-irrigation design and installation company in the San Joaquin Valley headquartered in Delano, California; the leading FBO at the Indianapolis Airport; one of the largest fully-integrated precast concrete companies headquartered in San Antonio, Texas; and one of the only two independent producers of styrene butadiene rubber in the United States headquartered in Baton Rouge, Louisiana, just to name a few.    We have also invested in GRT Rubber Technologies headquartered in Paragould, Arkansas, which was founded in the 1880s and manufactures rubber products including conveyor belts. And Bridge Capital Solutions, headquartered in Hauppauge, New York, which operates Long Island's only licensed commercial check-cashing service, serving small businesses in New York.    Today, Main Street has small business investments in at least 15 of the 24 States represented by this committee. And we are just one of the over 34 BDCs that are a part of SBIA.    Small and medium-sized businesses need growth capital. BDCs are growing to fill that need. BDC loan balances have tripled since 2008, and are not slowing. Growing businesses are going to continue to need more capital. BDCs will benefit from modernization that small businesses will be the ultimate beneficiaries of reform.    BDCs are highly regulated and highly transparent. The public can look up and review every one of our investments.    The BDC industry is not seeking deregulation or any changes to the Dodd-Frank Act. We have earned investor trust and grown stronger in the face of economic calamity. We earned our good name, and we will work to keep it.    What BDCs do need is commonsense modernization. I might need Mike to help me lift this up. Look at this stack of paper. This is our SEC filing to issue stock. Hundreds of pages represent wasted money and manpower.    Here is what CIT, $50 billion versus our $1.5 billion, has to file to get the same result because they can incorporate their other SEC filings by reference, but BDCs cannot. Do 4 more inches of paper protect better than half an inch? No one is protected by the failure to modernize the rules for BDCs.    This discussion draft would fix this absurdity and make a host of other clearly needed reforms. These reforms are overdue and worthy of bipartisan support. We encourage the committee to act promptly.    This committee has clearly worked on a bipartisan basis to make other reforms and improvements. For example, almost every BDC in the industry wants the freedom to access the markets by increasing the regulatory cap on leverage from 1-to-1 to 2-to-1. Not everyone will make the change, but they want the freedom to adjust to changes in the market.    The proposal does this in a very smart fashion that adds meaningful investor protections while adding capacity for investing. The draft bill makes other smart reforms that can add investor protections with transparency.    Currently, BDCs can earn registered investment advisers. But it requires SEC exemptive relief. This means BDCs are playing by different rules, and the investors are in the dark.    Standardizing the relief makes a level playing field, and provides clarity for investors. This, too, is a smart reform that is worthy of bipartisan support.    The bill includes a number of other reforms. Many are technical, but they matter, particularly for smaller and growing BDCs.    Every section of this bill shows thoughtful collaboration and improvements from previous bills. As the committee works through any fine-tuning on the bill, SBIA would encourage the committee to continue to keep the process moving and work to get real reform signed into law this Congress.    I would welcome any questions that you may have for me. Thank you.    [The prepared statement of Mr. Foster can be found on page 62 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Garrett. Thank you.    And later on we will hear from the gentleman from Maine about whether he has any comments about the less use of paper products being produced. But we will wait for his comments later.    Next, from Franklin Square Capital Partners, Mr. Gerber is recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Gerber</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gerber. Thank you, Chairman Garrett, Ranking Member Maloney, and members of the subcommittee. Thank you for the opportunity to testify today. My name is Mike Gerber and I am an executive vice president with Franklin Square Capital Partners.    Franklin Square was founded in Philadelphia in 2007 with the mission of offering institutional quality alternative investments to mainstream American investors, while leading the industry in best practices, transparency, investor protection, and education. To that end, we launched the industry's first-ever non-traded BDC in 2009. We successfully listed that fund on the New York Stock Exchange in April of last year to create liquidity for our investors.    Today, we manage four BDCs and have more BDC assets under management than any other manager in the industry. Franklin Square has investors in all 50 States, and we have portfolio companies in 39 States. Importantly, we have delivered strong risk-adjusted returns for our investors.    As you all know, the 1980 law that created BDCs was passed with strong bipartisan support, and was designed to stimulate investment in U.S. companies by matching mainstream investors' capital with mainstream businesses. Because BDCs are designed for retail investors, they are appropriately heavily regulated.    In fact, whether traded or non-traded, BDCs are among the most highly regulated investment vehicles in the marketplace. And because of the extensive public filings, some of which you have seen right here, BDCs are fully transparent to regulators and investors alike.    Our culture at Franklin Square is to embrace this regulation. In fact, it is part of how we market ourselves to financial advisers and investors. Specifically, BDCs register shares under the 1933 Act, and elect treatment as a BDC under the 1940 Act. In addition, a BDC is subject to the 1934 Act as a public company, meaning it must file 10-Qs, 10-Ks, 8-Ks and proxy statements.    Contained in every Form Q and Form K is a schedule of all of our investments, along with details such as the name of the portfolio company, the size of the loan, the rate of the loan, and the current mark of the investment.    Other key protections include mandatory third-party custody of all BDC assets; a board of directors, the majority of whom must be independent; and board approval of key matters such as management fees and quarterly valuations. In addition, our non-traded BDCs are also regulated by FINRA and by the blue sky securities regulators in all 50 States.    Taken together, these laws and regulations ensure that BDCs are extremely transparent, minimize conflicts of interest, and provide investors with a high level of protection.    One of the key mandates under the law requires BDCs to invest at least 70 percent of their assets in U.S. private and small cap companies. As a result, our BDCs at Franklin Square provided a significant amount of capital to middle-market job-creating companies.    Middle-market businesses employ more than 47 million people, or one out of every three workers in the private sector. In fact, between 2008 and 2014, middle-market firms grew jobs by 4.4 percent versus 1.6 percent for big businesses, and unfortunately a 0.9 percent decline with small businesses.    And now 39 percent of middle-market companies say they expect to grow and add more jobs in 2015. Middle market lenders like BDCs, therefore, must be poised to provide the capital necessary to help fuel this anticipated growth.    Currently, there are 84 BDCs representing approximately $70 billion in investments. At Franklin Square we have deployed $27 billion since inception, including $10 billion in directly originated loans.    The primary tool offered by Mr. Mulvaney's legislation that would help BDCs support more job-creating middle-market companies is the increase in the debt-to-equity ratio from 1-to-1 to 2-to-1. We believe this increase in leverage is modest and makes sense for three reasons.    First, BDCs would have more capital available to meet the demand of middle-market firms, while keeping all of our investor protections in place. Second, this would permit BDCs, as Mr. Arougheti explained, to build safer portfolios, delivering the same or higher returns, while taking on less risk. And third, even with the proposed increase, 2-to-1 leverage would still be quite low when compared to other lenders in the capital markets.    For example, banks today are levered anywhere from 8-to-1 to 15-to-1, and hedge funds are levered in the mid-teens to low 20s. We believe it would be good public policy to increase the lending capacity of BDCs, and promote the more heavily regulated, more transparent BDC model.    The discussion draft contains several additional provisions which I address in my written testimony, and I would be happy to cover in Q&amp;A. I would like to close by thanking Representative Mulvaney for his work on this legislation. And I look forward to answering questions from the committee.    [The prepared statement of Mr. Gerber can be found on page 73 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Garrett. Thank you.    Now from the Center for Capital Markets Competitiveness, Mr. Quaadman, welcome back to the panel. You are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Quaadman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Quaadman. Thank you, Chairman Garrett, Ranking Member Maloney, and members of the subcommittee.    Markets provide investors with the opportunity for return, and businesses with the potential to grow. Markets must have an even playing field and certainty in order to achieve these purposes. But we also live in a global economy.    So this past February, the Chamber released a report entitled, ``International Markets: A Diverse System is the Key to Commerce,'' which was written by Professor Anjan Thakor of Washington University.    And what the report found was two things: first, for businesses to operate in this global economy, they need to have diverse forms of financing; and second, capital will go to those markets that are most efficient, and businesses will go to where the capital is.    Therefore, in this global competitive environment, we have to keep in mind that the United States is not the only destination for capital. Indeed others, including the European Union today, are currently considering proposals to make their market-based financing more efficient in order to spur their capital formation. So these bills and the hearings that the subcommittee has been holding this year are very timely.    The business development corporations are filling a void for the midsized businesses and provide an alternative means to raise capital as other options have dried up over the years. We want to thank Mr. Mulvaney for introducing the Small Business Credit Availability Act, and we support it.    While BDCs have only been in operation since 1980, it is only in the last few years that they have become an attractive means of capital formation for businesses. Indeed, the Chamber has supported past bipartisan efforts to increase BDC activity. And we believe that this bill addresses the concerns that were raised in prior legislative debates, as well as by the SEC.    This bill will provide greater capital and flexibility investments while still having BDCs as a regulated entity. BDCs will increase, but still on a limited basis.    The Chamber also supports robust disclosures and investor protections of BDCs so that retail investors have both the opportunity to understand the upside, as well as the risk of investing in BDCs. We believe that the Mulvaney draft bill achieves that purpose.    I would also like to address the H.R. 2187, the Fair Investment Opportunities for Professional Experts Act. We need to have limits to allow sophisticated investors to invest in private companies and to access complex investment vehicles. We need to do this to ensure that unsophisticated investors are not harmed.    The Chamber supports objective tests such as asset and income thresholds to determine accredited investors. Mr. Schweikert has thoughtfully pointed out that there may be some on the periphery who should be allowed in. And we have some suggestions on how to improve the bill.    First, those who are licensed and certified to sell securities should be considered to be a sophisticated investor, but with caps to ensure that their investments match their financial wherewithal. Secondly, we understand the intent behind the FINRA test and think it is an innovative way to get at the solution. However, the test is also subjective.    We would prefer that the SEC be authorized to study the issue. What are the characteristics of a sophisticated investor? What are some of the innovative ways to bring those in, in a safe manner? And then to have the SEC report back to this committee as to what those innovations should be. And that those should be brought in under limited circumstances.    Additionally, we have concerns on the language regarding the use of financial intermediaries conveying an accredited investor status to retail investors. While we understand the intent behind that provision, we are concerned that the exception will subsume the rule, that it will also place some unsophisticated investors at harm, as well as increase liability for financial intermediaries. But we think this is a good step forward, and we are happy to work with Mr. Schweikert to make the bill a reality.    The Chamber feels that these bills will enhance the competitiveness and increase opportunities for return, growth, and job creation. We look forward to working with the sponsors of this legislation, both bills, with the subcommittee, and to improve them as well as to include these vehicles into a JOBS Act 2.0 that we hope can become law in this Congress. Thank you.    [The prepared statement of Mr. Quaadman can be found on page 81 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Garrett. Thank you.    Finally, last but not least, Professor Brown. You are recognized for--</t>
   </si>
   <si>
+    <t>Brown</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brown. ``Jay'' is fine.</t>
   </si>
   <si>
@@ -190,6 +223,12 @@
     <t>400441</t>
   </si>
   <si>
+    <t>Neugebauer</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman. Thanks for holding this hearing.    Mr. Arougheti, Mr. Brown had said that increasing the leverage ratio would be harmful to--has the potential to be harmful to the investors. But what I heard you saying is that you would use that leverage in a way that enhances shareholder value, wouldn't you?</t>
   </si>
   <si>
@@ -229,6 +268,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you.    Mr. Brown, one definition that would be added is for accredited investors or those who have retained or used the services of various advisers. As you understand the legislation, would that mean that an investor could just retain the advice of an adviser who is affiliated with, selected by, or compensated by the issuer?</t>
   </si>
   <si>
@@ -268,6 +313,9 @@
     <t>412437</t>
   </si>
   <si>
+    <t>Huizenga</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huizenga. Thank you, Mr. Chairman.    And actually I will kind of continue on the line of questioning that my friend from California had. And I might add, while I might question your judgment on things on occasion, politically I would view you as a qualified investor. I would hope that reasonably educated people who can go do this would be able to go in and make these types of decisions.    So I am kind of curious about this--sort of this fiduciary issue that seemed to be the pursuit, and about compensation. And Mr. Gerber, when the little exchange was happening you had a very contemplative look on your face. I am curious if you were looking to try to respond to that or any of the others.    And then Mr. Quaadman, you had mentioned that from your perspective, quickly, at the end of I think it was Mr. Neugebauer's questioning about you believe that this could help operational companies. And I wanted to expand on that a little bit.    And then Mr. Arougheti, you had talked a little bit about adequate protection. So that is kind of that direction I would like to go.    And Mr. Gerber, I don't know if you care to lead off, if you had something to say about that fiduciary element?</t>
   </si>
   <si>
@@ -304,6 +352,12 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Garrett. And thank you, Ranking Member Maloney, for holding this hearing.    It seems to me that when it comes to innovation the United States is the envy of the world. And we are the envy not only because our economy values and rewards entrepreneurship and hard work, but because our markets are transparent, safe, and liquid.    My first question goes to Professor Brown. The discussion draft of the Small Business Credit Availability Act creates multiple classes of preferred stock, each with different shareholder rights. With different characteristics and rights, do the new classes of preferred stock pose risk to retail investors?</t>
   </si>
   <si>
@@ -343,6 +397,12 @@
     <t>412461</t>
   </si>
   <si>
+    <t>Stivers</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stivers. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -388,6 +448,12 @@
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. And I want to thank the members of the panel. You have been helpful.    Let's drill down on that a little bit, though. Under the terms of the bill right now, H.R. 2187, a personal injury attorney with no other requirements would be able to self-certify as an accredited investor. Isn't that right, Mr. Quaadman?</t>
   </si>
   <si>
@@ -424,6 +490,12 @@
     <t>412399</t>
   </si>
   <si>
+    <t>Schweikert</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman. And we will walk through a couple of the things, and maybe if one or two of the misunderstandings and then work through--work a little backwards from there.    First of all, I think for all of us here there is an understanding that we have both the societal problem and some other mechanical problems. My understanding is that of our 318 million population right now we have only about 600,000 Americans who have gone through the process who are qualified investors.    We know that half of our Baby Boom population is moving into retirement with very, very little savings. So part of our goal here is how do we move more of our population into the investment class, and do it in a safe and rational fashion? And so I actually have been working on this bill for a while, but quite open to any brilliant suggestion.    I do want to go over a couple of things, just because one I think was sort of a misunderstanding, a misstatement. Under current legislation right now, under a current law 506, if you are the lawyer, if you are the CPA, if you are the registered broker-dealer, you get to certify someone as being a qualified investor. It doesn't make you a qualified investor.    The second part of that is the way the bill is drafted right now, if you were to hire one of those people for guidance, it would allow you to invest in some of these products. Maybe that is where it needs to be tightened up.    And my first question, Mr. Chairman, and it was actually to Mr. Brown, just one quick one. You are actually on the SEC's committee that has been somewhat looking at the definitions of qualified investor?</t>
   </si>
   <si>
@@ -457,6 +529,12 @@
     <t>412282</t>
   </si>
   <si>
+    <t>Himes</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Himes. Thank you, Mr. Chairman.    And I thank you all for being here for the duration. I am encouraged by what is a robust and substantive bipartisan conversation.    I do have, though, a couple of--and by the way I appreciate Mr. Mulvaney's offer. I have a couple of concerns that I would like to have addressed here. The first and most important pertains to the levels of leverage that would be permitted under the Mulvaney proposal.    Specifically if you start to do the math on the 30 percent bucket where, as you know, there are plenty of firms out there that are holding equity tranches in CLOs which themselves are seven, eight, nine, 10 times levered.    When you start to do the math on going to 2-to-1 leverage in these instruments, on investments in financial companies which may themselves have 3 or 4 times leverage, investing in instruments which themselves may have 7, 8, 9 times leverage, you pretty quickly get to some pretty stratospheric leverage numbers. It is not hard to get up into the sort of 70x leverage numbers if you just work through that math.    And of course if you then expand the 30 percent bucket into 50 percent, you have conceivably, and I understand that there will be some prudence exercised by some players in the industry, but you potentially have a very highly leveraged vehicle here.    So I wonder--and let me just start with Mr. Gerber since he is in the business. And then I would welcome comments. But am I right to be concerned that if we permit this degree of leverage, you have essentially a very, very volatile instrument?    I don't need to tell you that at 50x leverage, a tiny fluctuation in the value of underlying asset puts this instrument completely underwater and eliminates the investment of a lot of retail investors for whom this product is created. So, Mr. Gerber, make me feel more comfortable on that issue.</t>
   </si>
   <si>
@@ -496,6 +574,12 @@
     <t>412633</t>
   </si>
   <si>
+    <t>Poliquin</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you, Mr. Chairman, very much. I appreciate it.    And thank you gentlemen for all coming today. If we all as a country look at the state of our economy, where it has gone and where it is going, in the last 5 or 10 years, my understanding is that about 80 percent of the new job hires in this country were in the small-to medium-sized business space. So we want to make sure that we do everything humanly possible to help our small businesses grow.    I just looked at a survey a short time ago saying something like 42 percent of business executives believe that the lack of financing is one of the key reasons that they just don't have the confidence to hire more workers and grow their business.    So I know that Dodd-Frank is a smothering regulation that is reducing the available credit among lots of players in your space. And so I salute you folks for trying to fill that void.    I just heard something, Mr. Gerber, a short time ago that I want to drill down with you a little bit if I may, something that for a non-traded BDC like you folks that the information that is provided tends to be opaque. Now, we want to make sure that investors who are investing in these sort of financial products, that they have all the information they need to go forward. Could you address that, sir?</t>
   </si>
   <si>
@@ -547,6 +631,12 @@
     <t>412407</t>
   </si>
   <si>
+    <t>Carney</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carney. Thank you, Mr. Chairman, and Ranking Member Maloney for holding this hearing today. And thank you to Mr. Mulvaney and Mr. Schweikert for these proposals.    I would like to--I have to admit I don't know a lot about BDCs. And so I found your testimony very interesting. And I just have really two questions.    One is to you, Mr. Foster. On page five, I would like to understand a little bit about how these BDCs are operating in my area. I am the Representative from the State of Delaware, the whole State, which is a very small place.    But I notice on here that it has a pretty big number under it on your map on page five, particularly relative to States that are much, much larger. Can you explain that? Is that a function of our fact that we are the State to incorporate your business? Does that have anything to do with that? Or is that a function of greater BDC activity in my State?</t>
   </si>
   <si>
@@ -628,6 +718,12 @@
     <t>412474</t>
   </si>
   <si>
+    <t>Mulvaney</t>
+  </si>
+  <si>
+    <t>Mick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Will the gentleman yield for a second?</t>
   </si>
   <si>
@@ -650,6 +746,9 @@
   </si>
   <si>
     <t>412422</t>
+  </si>
+  <si>
+    <t>Hultgren</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Mr. Chairman.    Thank you all for being here.</t>
@@ -1082,7 +1181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,7 +1189,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,5165 +1211,6095 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>69</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>69</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s">
+        <v>69</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>28</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G68" t="s">
+        <v>99</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G70" t="s">
+        <v>99</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G73" t="s">
+        <v>99</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>99</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G79" t="s">
+        <v>112</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G81" t="s">
+        <v>112</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G83" t="s">
+        <v>112</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G85" t="s">
+        <v>112</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G89" t="s">
+        <v>112</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G91" t="s">
+        <v>127</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G93" t="s">
+        <v>127</v>
+      </c>
       <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G95" t="s">
+        <v>127</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G97" t="s">
+        <v>127</v>
+      </c>
       <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G99" t="s">
+        <v>127</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G101" t="s">
+        <v>127</v>
+      </c>
       <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>108</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G103" t="s">
+        <v>127</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>123</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G105" t="s">
+        <v>144</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G107" t="s">
+        <v>144</v>
+      </c>
       <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>123</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G109" t="s">
+        <v>144</v>
+      </c>
       <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>38</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>123</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G111" t="s">
+        <v>144</v>
+      </c>
       <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>38</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>123</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G113" t="s">
+        <v>144</v>
+      </c>
       <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>123</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G115" t="s">
+        <v>144</v>
+      </c>
       <c r="H115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G117" t="s">
+        <v>158</v>
+      </c>
       <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>38</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G119" t="s">
+        <v>158</v>
+      </c>
       <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>38</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G121" t="s">
+        <v>158</v>
+      </c>
       <c r="H121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G123" t="s">
+        <v>158</v>
+      </c>
       <c r="H123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G125" t="s">
+        <v>158</v>
+      </c>
       <c r="H125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G127" t="s">
+        <v>171</v>
+      </c>
       <c r="H127" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>32</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>146</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G129" t="s">
+        <v>171</v>
+      </c>
       <c r="H129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>146</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G131" t="s">
+        <v>171</v>
+      </c>
       <c r="H131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>146</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G133" t="s">
+        <v>171</v>
+      </c>
       <c r="H133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G135" t="s">
+        <v>171</v>
+      </c>
       <c r="H135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>146</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G138" t="s">
+        <v>171</v>
+      </c>
       <c r="H138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>159</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G140" t="s">
+        <v>186</v>
+      </c>
       <c r="H140" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>159</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G142" t="s">
+        <v>186</v>
+      </c>
       <c r="H142" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I142" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>32</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>159</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G144" t="s">
+        <v>186</v>
+      </c>
       <c r="H144" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>32</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>159</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G146" t="s">
+        <v>186</v>
+      </c>
       <c r="H146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>159</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G148" t="s">
+        <v>186</v>
+      </c>
       <c r="H148" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>159</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G150" t="s">
+        <v>186</v>
+      </c>
       <c r="H150" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G151" t="s">
+        <v>28</v>
+      </c>
       <c r="H151" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>159</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G152" t="s">
+        <v>186</v>
+      </c>
       <c r="H152" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I152" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>35</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>159</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G154" t="s">
+        <v>186</v>
+      </c>
       <c r="H154" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>176</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G156" t="s">
+        <v>205</v>
+      </c>
       <c r="H156" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I156" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G157" t="s">
+        <v>28</v>
+      </c>
       <c r="H157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I157" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>176</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G158" t="s">
+        <v>205</v>
+      </c>
       <c r="H158" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
+        <v>28</v>
+      </c>
       <c r="H159" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I159" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>176</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G160" t="s">
+        <v>205</v>
+      </c>
       <c r="H160" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I160" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>28</v>
+      </c>
       <c r="H161" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I161" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>176</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G162" t="s">
+        <v>205</v>
+      </c>
       <c r="H162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I162" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>176</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G164" t="s">
+        <v>205</v>
+      </c>
       <c r="H164" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>32</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>176</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G166" t="s">
+        <v>205</v>
+      </c>
       <c r="H166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I166" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>32</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>176</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G168" t="s">
+        <v>205</v>
+      </c>
       <c r="H168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I168" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>32</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>176</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G170" t="s">
+        <v>205</v>
+      </c>
       <c r="H170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I170" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>32</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>176</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G172" t="s">
+        <v>205</v>
+      </c>
       <c r="H172" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I172" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>22</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>176</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G174" t="s">
+        <v>205</v>
+      </c>
       <c r="H174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I174" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>176</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G176" t="s">
+        <v>205</v>
+      </c>
       <c r="H176" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I176" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>176</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G178" t="s">
+        <v>205</v>
+      </c>
       <c r="H178" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I178" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>22</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>176</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G180" t="s">
+        <v>205</v>
+      </c>
       <c r="H180" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I180" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>22</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>203</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G182" t="s">
+        <v>234</v>
+      </c>
       <c r="H182" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I182" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>176</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G183" t="s">
+        <v>205</v>
+      </c>
       <c r="H183" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I183" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>203</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G184" t="s">
+        <v>234</v>
+      </c>
       <c r="H184" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I184" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>176</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G185" t="s">
+        <v>205</v>
+      </c>
       <c r="H185" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G186" t="s">
+        <v>28</v>
+      </c>
       <c r="H186" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I186" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>176</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G187" t="s">
+        <v>205</v>
+      </c>
       <c r="H187" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I187" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>211</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="G189" t="s">
+        <v>244</v>
+      </c>
       <c r="H189" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I189" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>203</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G191" t="s">
+        <v>234</v>
+      </c>
       <c r="H191" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I191" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>211</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="G193" t="s">
+        <v>244</v>
+      </c>
       <c r="H193" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G194" t="s">
+        <v>32</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>211</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="G195" t="s">
+        <v>244</v>
+      </c>
       <c r="H195" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I195" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
+        <v>35</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>211</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="G197" t="s">
+        <v>244</v>
+      </c>
       <c r="H197" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I197" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>22</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>211</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="G199" t="s">
+        <v>244</v>
+      </c>
       <c r="H199" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I199" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G200" t="s">
+        <v>28</v>
+      </c>
       <c r="H200" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I200" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>211</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="G201" t="s">
+        <v>244</v>
+      </c>
       <c r="H201" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I201" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
       <c r="H202" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>203</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G203" t="s">
+        <v>234</v>
+      </c>
       <c r="H203" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I203" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
       <c r="H204" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>203</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G205" t="s">
+        <v>234</v>
+      </c>
       <c r="H205" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I205" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>32</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>203</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G207" t="s">
+        <v>234</v>
+      </c>
       <c r="H207" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I207" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>38</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>203</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G209" t="s">
+        <v>234</v>
+      </c>
       <c r="H209" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I209" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G210" t="s">
+        <v>38</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>203</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G211" t="s">
+        <v>234</v>
+      </c>
       <c r="H211" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I211" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G212" t="s">
+        <v>38</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>203</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="G213" t="s">
+        <v>234</v>
+      </c>
       <c r="H213" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I213" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
       <c r="H214" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s">
+        <v>17</v>
+      </c>
       <c r="H215" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I215" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
       <c r="H216" t="s">
-        <v>239</v>
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96994.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96994.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400145</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Garrett</t>
@@ -1181,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,7 +1195,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,6092 +1220,6592 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G79" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>38</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G81" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G83" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G85" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G89" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G91" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G93" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I95" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G97" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G99" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G101" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>32</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G103" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G105" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I105" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G107" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I107" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G109" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I109" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>38</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G111" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I111" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>38</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>40</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G113" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>38</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>40</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G115" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I115" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G117" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I117" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>38</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G119" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>38</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>40</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G121" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>35</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>37</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G123" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>35</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>37</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G125" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I125" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G127" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I127" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>34</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G129" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I129" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>32</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G131" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I131" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G133" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>34</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G135" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>34</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G138" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I138" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J138" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G140" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I140" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J140" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>32</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>34</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G142" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I142" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J142" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G144" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I144" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>32</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G146" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I146" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J146" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>22</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>24</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G148" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I148" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J148" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>22</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>24</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G150" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I150" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J150" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I151" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J151" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G152" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I152" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J152" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>35</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>37</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G154" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I154" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J154" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G156" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I156" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J156" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I157" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J157" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G158" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I158" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J158" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I159" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J159" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G160" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I160" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J160" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I161" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G162" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I162" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J162" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>34</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G164" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I164" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J164" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>32</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>34</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G166" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I166" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J166" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>32</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>34</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G168" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I168" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J168" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>32</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>34</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G170" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I170" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J170" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>32</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>34</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G172" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I172" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J172" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>22</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G174" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I174" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J174" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>24</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G176" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I176" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J176" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>22</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G178" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I178" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J178" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>22</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>24</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G180" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I180" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J180" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>22</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>24</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G182" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I182" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G183" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I183" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G184" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I184" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J184" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G185" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I185" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I186" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J186" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G187" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I187" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J187" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G189" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="I189" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J189" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G191" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I191" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J191" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G193" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="I193" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J193" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
-      </c>
-      <c r="G194" t="s">
-        <v>32</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G195" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="I195" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J195" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
-      </c>
-      <c r="G196" t="s">
-        <v>35</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>37</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G197" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="I197" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J197" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s">
-        <v>22</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>24</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G199" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="I199" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J199" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I200" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J200" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G201" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="I201" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J201" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I202" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J202" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G203" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I203" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J203" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J204" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G205" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I205" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J205" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
-      </c>
-      <c r="G206" t="s">
-        <v>32</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>34</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G207" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I207" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J207" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>21</v>
-      </c>
-      <c r="G208" t="s">
-        <v>38</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>40</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G209" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I209" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J209" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>21</v>
-      </c>
-      <c r="G210" t="s">
-        <v>38</v>
-      </c>
-      <c r="H210" t="s"/>
-      <c r="I210" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
+        <v>40</v>
+      </c>
+      <c r="I210" t="s"/>
+      <c r="J210" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G211" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I211" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J211" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" t="s">
-        <v>38</v>
-      </c>
-      <c r="H212" t="s"/>
-      <c r="I212" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G212" t="s"/>
+      <c r="H212" t="s">
+        <v>40</v>
+      </c>
+      <c r="I212" t="s"/>
+      <c r="J212" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G213" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I213" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J213" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I214" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J214" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G215" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I215" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J215" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I216" t="s">
-        <v>272</v>
+        <v>16</v>
+      </c>
+      <c r="J216" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
